--- a/Documents/Final/candidates-final.xlsx
+++ b/Documents/Final/candidates-final.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Roll NO</t>
   </si>
@@ -32,73 +32,19 @@
     <t xml:space="preserve"> External Examiner</t>
   </si>
   <si>
-    <t>074MSCK003</t>
-  </si>
-  <si>
-    <t>Deepak Paudel</t>
-  </si>
-  <si>
-    <t>LEMMATIZATION FOR NEPALI TEXT BASED ON TRIE STRUCTURE</t>
-  </si>
-  <si>
-    <t>Dr. Aman  Shakya</t>
-  </si>
-  <si>
-    <t>Dr. Bal Krishna Bal</t>
-  </si>
-  <si>
-    <t>074MSCSK012</t>
-  </si>
-  <si>
-    <t>Sujan Shrestha</t>
-  </si>
-  <si>
-    <t>Detection and Prevention from Black-hole attack on AODV Protocol in MANET</t>
-  </si>
-  <si>
-    <t>Dr. Surendra  Shrestha</t>
-  </si>
-  <si>
-    <t>Mr. Adesh  Khadka</t>
-  </si>
-  <si>
-    <t>074MSCSK014</t>
-  </si>
-  <si>
-    <t>Suresh Mainali</t>
-  </si>
-  <si>
-    <t>Road Traffic Congestion Prediction in Nepal Based On GPS Data</t>
-  </si>
-  <si>
-    <t>Prof Dr. Subarna  Shakya</t>
-  </si>
-  <si>
-    <t>074MSCSK015</t>
-  </si>
-  <si>
-    <t>Suresh Pokharel</t>
-  </si>
-  <si>
-    <t>SCALE INVARIANT FEATURE TRANSFORM(SIFT) ANALYSIS AND VISUAL QUALITY EVALUATION OF SUPER RESOLUTION IMAGE GENERATED BY GENERATIVE ADVERSARIAL NETWORK</t>
-  </si>
-  <si>
-    <t>Dr. Dibakar Raj Pant</t>
-  </si>
-  <si>
-    <t>Mr. Subhash  Dhakal</t>
-  </si>
-  <si>
-    <t>074MSCSK007</t>
-  </si>
-  <si>
-    <t>Pankaj Dhakal</t>
-  </si>
-  <si>
-    <t>Uncertainty Estimation in Detecting Knee Abnormalities on MRI</t>
-  </si>
-  <si>
-    <t>Prof Dr. Shashidhar Ram Joshi</t>
+    <t>077bct098</t>
+  </si>
+  <si>
+    <t>darpan</t>
+  </si>
+  <si>
+    <t>hehe</t>
+  </si>
+  <si>
+    <t>Dr. Darpan  Kattel</t>
+  </si>
+  <si>
+    <t>Mr. Saurav  Dhungana</t>
   </si>
 </sst>
 </file>
@@ -447,7 +393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,74 +435,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Documents/Final/candidates-final.xlsx
+++ b/Documents/Final/candidates-final.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
     <t>Roll NO</t>
   </si>
@@ -30,21 +30,6 @@
   </si>
   <si>
     <t xml:space="preserve"> External Examiner</t>
-  </si>
-  <si>
-    <t>077bct098</t>
-  </si>
-  <si>
-    <t>darpan</t>
-  </si>
-  <si>
-    <t>hehe</t>
-  </si>
-  <si>
-    <t>Dr. Darpan  Kattel</t>
-  </si>
-  <si>
-    <t>Mr. Saurav  Dhungana</t>
   </si>
 </sst>
 </file>
@@ -393,7 +378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -418,23 +403,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
